--- a/biology/Neurosciences/Stanislas_Dehaene/Stanislas_Dehaene.xlsx
+++ b/biology/Neurosciences/Stanislas_Dehaene/Stanislas_Dehaene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanislas Dehaene est un psychologue spécialisé en neuropsychologie français né le 12 mai 1965 à Roubaix.
 Ses travaux scientifiques portent sur les représentations mathématiques (numération, géométrie), la lecture, le langage et la conscience qui ont fait l'objet également d'ouvrages de vulgarisation. 
@@ -515,23 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation et titre universitaire
-Ancien élève du lycée privé Sainte-Geneviève puis de l'École normale supérieure (1984-1988), Stanislas Dehaene est titulaire d'une maîtrise en mathématiques de l'UPMC (1985)[1] et d'un doctorat en psychologie de l'EHESS (1989)[2]. Il rédige sa thèse La comparaison des petits nombres : représentation analogique et processus attentionnels sous la direction de Jacques Mehler, ce dernier ayant été l'un des rares promoteurs des sciences cognitives en France[3]. Parallèlement, il travaille avec Jean-Pierre Changeux sur des modèles de fonctions neurobiologiques comme le chant des oiseaux. En 1992, il part chez Michael Posner (USA) se former aux techniques d'imagerie cérébrale.
-Il dirige l'unité de neuro-imagerie cognitive, unité mixte INSERM-CEA à NeuroSpin[4] dans l'Essonne.
-Il est élu membre de l’Académie des sciences le 29 novembre 2005, et nommé professeur au Collège de France à la chaire de psychologie cognitive expérimentale[5].
-Conseil scientifique de l'Education nationale
-Depuis janvier 2018, il préside le conseil scientifique de l'Éducation nationale[6] mis en place en par le ministre de l'Éducation nationale Jean-Michel Blanquer pour l'aide à la prise de décision[7],[8],[9] concernant les apprentissages et la pédagogie[10] . Il explique que le travail se concentre principalement sur les sciences cognitives en lien avec les apprentissages en complément des neurosciences[11].
-L'approche des neurosciences dans un contexte d'éducation défendue par Stanislas Dehaene a suscité des critiques dont une simplification excessive de la modélisation du cerveau voire une forme d'idéologie scientiste[12],[13],[14],[15]. Yves Charles Zarka dans une tribune du Monde critique les thèses de Stanislas Dehaene qu'il estime « fausses et dangereuses »[12].
-Durant la pandémie du Covid-19, il soutient l'ouverture des écoles du fait que l'interaction à travers un ordinateur et l'absence physique de l'enseignant défavorise l'apprentissage chez l'enfant[16].
-Il déplore le niveau de classement de la France en matières de compétences mathématiques des élèves, dernier pays d'Europe et qualifie ce problème comme un « phénomène sociétal » aussi grave que la crise de la Covid-19 et l'assassinat de Samuel Paty[17].
-Travaux universitaires
-Modélisation de la cognition
-À partir de la fin des années 80, Stanislas Dehaene collabore avec Jean-Pierre Changeux pour initier la modélisation computationnelle en s’intéressant aux bases neuronales des fonctions cognitives. Ils théorisent et développent un modèle d’accès à la conscience basé sur le recrutement au niveau cérébral global de réseaux de neurones avec des axones à longue distance qu'il nomme l’espace de travail neuronal conscient, ou modèle d'espace de travail cognitif global[18],[19]. Ce modèle s'inspire de la théorie de l'espace de travail global développée par Bernard Baars et tente de reproduire le comportement en essaim des fonctions cognitives supérieures du cerveau telles que la conscience, la prise de décision[20] et les fonctions exécutives centrales. Il est utilisé pour fournir un cadre prédictif à l'étude de la cécité d'inattention, le développement des compétences numériques élémentaires et à la résolution du test de la Tour de Londres[21],[22].
-Psychologie cognitive
-Les travaux scientifiques de Stanislas Dehaene  exploitent conjointement les méthodes de la psychologie cognitive et de l’imagerie cérébrale[n 1]. Ils portent principalement sur les architectures cérébrales de l'arithmétique, de la lecture, du langage parlé, et l’accès d’informations à la conscience[24], ce qui l'a amené à s’intéresser à la dyscalculie et à la dyslexie[25]. Il préconise la pédagogie Montessori comme étant une alternative au système traditionnel[26].
-En tant qu'observateur de l'expérimentation menée par Céline Alvarez autrice de l'ouvrage les lois naturelles de l'enfant, il décrit une expérience très bénéfique au niveau comportemental pour les jeunes élèves d'une classe ZEP. Par la suite, ils mènent une expérimentation commune en collaboration avec son épouse Ghislaine Dehaene-Lambertz pour effectuer des imageries cérébrales auprès d'un groupe d'enfants. Il conclut des résultats positifs pour l'acquisition de la lecture tout en admettant que l'étude n'est pas randomisée[27]. Il déplore que cette expérimentation ne soit pas renouvelée malgré des résultats prometteurs. Il préconise davantage de formation continue auprès des enseignants en favorisant davantage l'accès aux publications scientifiques afin qu'ils puissent initier ce type de micro-expérimentations[28].
-Ouvrage Le Code de la conscience
-Dans l'ouvrage Le Code de la conscience, Stanislas Dehaene développe la théorie de l'espace de travail global (TETG) en collaboration avec le neurobiologiste Jean-Pierre Changeux selon laquelle des "données rendues accessibles à un endroit du système vont permettre à de nombreux modules spécialisés d’être mis au courant de ces informations et de les utiliser"[29].
+          <t>Formation et titre universitaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien élève du lycée privé Sainte-Geneviève puis de l'École normale supérieure (1984-1988), Stanislas Dehaene est titulaire d'une maîtrise en mathématiques de l'UPMC (1985) et d'un doctorat en psychologie de l'EHESS (1989). Il rédige sa thèse La comparaison des petits nombres : représentation analogique et processus attentionnels sous la direction de Jacques Mehler, ce dernier ayant été l'un des rares promoteurs des sciences cognitives en France. Parallèlement, il travaille avec Jean-Pierre Changeux sur des modèles de fonctions neurobiologiques comme le chant des oiseaux. En 1992, il part chez Michael Posner (USA) se former aux techniques d'imagerie cérébrale.
+Il dirige l'unité de neuro-imagerie cognitive, unité mixte INSERM-CEA à NeuroSpin dans l'Essonne.
+Il est élu membre de l’Académie des sciences le 29 novembre 2005, et nommé professeur au Collège de France à la chaire de psychologie cognitive expérimentale.
 </t>
         </is>
       </c>
@@ -557,12 +561,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est l'époux de Ghislaine Dehaene-Lambertz[30].
+          <t>Conseil scientifique de l'Education nationale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis janvier 2018, il préside le conseil scientifique de l'Éducation nationale mis en place en par le ministre de l'Éducation nationale Jean-Michel Blanquer pour l'aide à la prise de décision concernant les apprentissages et la pédagogie . Il explique que le travail se concentre principalement sur les sciences cognitives en lien avec les apprentissages en complément des neurosciences.
+L'approche des neurosciences dans un contexte d'éducation défendue par Stanislas Dehaene a suscité des critiques dont une simplification excessive de la modélisation du cerveau voire une forme d'idéologie scientiste. Yves Charles Zarka dans une tribune du Monde critique les thèses de Stanislas Dehaene qu'il estime « fausses et dangereuses ».
+Durant la pandémie du Covid-19, il soutient l'ouverture des écoles du fait que l'interaction à travers un ordinateur et l'absence physique de l'enseignant défavorise l'apprentissage chez l'enfant.
+Il déplore le niveau de classement de la France en matières de compétences mathématiques des élèves, dernier pays d'Europe et qualifie ce problème comme un « phénomène sociétal » aussi grave que la crise de la Covid-19 et l'assassinat de Samuel Paty.
 </t>
         </is>
       </c>
@@ -588,22 +601,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1999 : Centennial Fellowship de la fondation Mc Donnell (en)[31].
-2005 : membre de l'Académie des sciences.
-2008 : membre de l'Académie pontificale des sciences[32].
-2008 : lauréat du Prix Carvalho-Heineken pour les sciences cognitives décerné par l'Académie royale néerlandaise des arts et des sciences.
-2010 : membre de l'Académie nationale des sciences (États-Unis), de la Société américaine de philosophie et correspondant de la British Academy[33].
-2011 : chevalier de la Légion d'honneur[34].
-2013 : Grand prix de l'Inserm[35].
-2013 : docteur honoris causa de HEC Paris[36]
-2014 : colauréat du Brain Prize, avec Giacomo Rizzolatti et Trevor W. Robbins[37].
-2015 : lauréat de l'American Psychological Association (APA) Distinguished Scientific Contributions[38]
-2024 : lauréat du prix Atkinson en sciences psychologiques et cognitives, décerné par l'académie américaine des sciences[39]</t>
+          <t>Travaux universitaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Modélisation de la cognition</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de la fin des années 80, Stanislas Dehaene collabore avec Jean-Pierre Changeux pour initier la modélisation computationnelle en s’intéressant aux bases neuronales des fonctions cognitives. Ils théorisent et développent un modèle d’accès à la conscience basé sur le recrutement au niveau cérébral global de réseaux de neurones avec des axones à longue distance qu'il nomme l’espace de travail neuronal conscient, ou modèle d'espace de travail cognitif global,. Ce modèle s'inspire de la théorie de l'espace de travail global développée par Bernard Baars et tente de reproduire le comportement en essaim des fonctions cognitives supérieures du cerveau telles que la conscience, la prise de décision et les fonctions exécutives centrales. Il est utilisé pour fournir un cadre prédictif à l'étude de la cécité d'inattention, le développement des compétences numériques élémentaires et à la résolution du test de la Tour de Londres,.
+</t>
         </is>
       </c>
     </row>
@@ -628,10 +642,166 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Travaux universitaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Psychologie cognitive</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux scientifiques de Stanislas Dehaene  exploitent conjointement les méthodes de la psychologie cognitive et de l’imagerie cérébrale[n 1]. Ils portent principalement sur les architectures cérébrales de l'arithmétique, de la lecture, du langage parlé, et l’accès d’informations à la conscience, ce qui l'a amené à s’intéresser à la dyscalculie et à la dyslexie. Il préconise la pédagogie Montessori comme étant une alternative au système traditionnel.
+En tant qu'observateur de l'expérimentation menée par Céline Alvarez autrice de l'ouvrage les lois naturelles de l'enfant, il décrit une expérience très bénéfique au niveau comportemental pour les jeunes élèves d'une classe ZEP. Par la suite, ils mènent une expérimentation commune en collaboration avec son épouse Ghislaine Dehaene-Lambertz pour effectuer des imageries cérébrales auprès d'un groupe d'enfants. Il conclut des résultats positifs pour l'acquisition de la lecture tout en admettant que l'étude n'est pas randomisée. Il déplore que cette expérimentation ne soit pas renouvelée malgré des résultats prometteurs. Il préconise davantage de formation continue auprès des enseignants en favorisant davantage l'accès aux publications scientifiques afin qu'ils puissent initier ce type de micro-expérimentations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stanislas_Dehaene</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stanislas_Dehaene</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrage Le Code de la conscience</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'ouvrage Le Code de la conscience, Stanislas Dehaene développe la théorie de l'espace de travail global (TETG) en collaboration avec le neurobiologiste Jean-Pierre Changeux selon laquelle des "données rendues accessibles à un endroit du système vont permettre à de nombreux modules spécialisés d’être mis au courant de ces informations et de les utiliser".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stanislas_Dehaene</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stanislas_Dehaene</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'époux de Ghislaine Dehaene-Lambertz.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stanislas_Dehaene</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stanislas_Dehaene</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1999 : Centennial Fellowship de la fondation Mc Donnell (en).
+2005 : membre de l'Académie des sciences.
+2008 : membre de l'Académie pontificale des sciences.
+2008 : lauréat du Prix Carvalho-Heineken pour les sciences cognitives décerné par l'Académie royale néerlandaise des arts et des sciences.
+2010 : membre de l'Académie nationale des sciences (États-Unis), de la Société américaine de philosophie et correspondant de la British Academy.
+2011 : chevalier de la Légion d'honneur.
+2013 : Grand prix de l'Inserm.
+2013 : docteur honoris causa de HEC Paris
+2014 : colauréat du Brain Prize, avec Giacomo Rizzolatti et Trevor W. Robbins.
+2015 : lauréat de l'American Psychological Association (APA) Distinguished Scientific Contributions
+2024 : lauréat du prix Atkinson en sciences psychologiques et cognitives, décerné par l'académie américaine des sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stanislas_Dehaene</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stanislas_Dehaene</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(en) Numerical Cognition, Oxford : Blackwell, 1993  (ISBN 1-557-86444-6)
 La bosse des maths, Odile Jacob, 2010  (ISBN 9782738125248) (1re édition 1996)
